--- a/Offline/TeacherRecruitment/Teacher Payment Vs Tution Fees.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Vs Tution Fees.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\TeacherRecruitment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="Premium Teacher" sheetId="3" r:id="rId1"/>
     <sheet name="Average Teacher" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="36">
   <si>
     <t>Physics</t>
   </si>
@@ -127,12 +132,15 @@
   <si>
     <t>Premium teachers are those teachers who have themselves ranked in Board or University exams, or have completed PhD or equivalent in their academic field or who have 10 or more students who have either ranked in board / university exams or are successfully working in high posts in world renouned organizations.</t>
   </si>
+  <si>
+    <t>English</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,15 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -402,15 +401,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -434,6 +424,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,2508 +720,2668 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="12" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
         <v>5400</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>5400</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>5400</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>5400</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5400</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>5400</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>4200</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>4200</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>4200</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>4200</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>4200</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>4200</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>4200</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <v>3000</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="12">
         <v>3000</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M6" s="12">
         <v>2700</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="12">
         <v>2700</v>
       </c>
-      <c r="N6" s="15">
+      <c r="O6" s="12">
         <v>2700</v>
       </c>
-      <c r="O6" s="15">
+      <c r="P6" s="12">
         <v>2700</v>
       </c>
-      <c r="P6" s="15">
+      <c r="Q6" s="12">
         <v>2700</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="15">
         <v>2700</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>4200</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>4200</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>4200</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>4200</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>4200</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>4200</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>4200</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
         <v>3000</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>3000</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M7" s="12">
         <v>2700</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="12">
         <v>2700</v>
       </c>
-      <c r="N7" s="15">
+      <c r="O7" s="12">
         <v>2700</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="12">
         <v>2700</v>
       </c>
-      <c r="P7" s="15">
+      <c r="Q7" s="12">
         <v>2700</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="R7" s="15">
         <v>2700</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>3600</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>3600</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>3600</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>3600</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>3600</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>3600</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>3600</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="12">
         <v>2700</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="12">
         <v>2700</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M8" s="12">
         <v>2400</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="12">
         <v>2400</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="12">
         <v>2400</v>
       </c>
-      <c r="O8" s="15">
+      <c r="P8" s="12">
         <v>2400</v>
       </c>
-      <c r="P8" s="15">
+      <c r="Q8" s="12">
         <v>2400</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="R8" s="15">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>3600</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>3600</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>3600</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>3600</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>3600</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>3600</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12">
         <v>2700</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M9" s="12">
         <v>2400</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="12">
         <v>2400</v>
       </c>
-      <c r="N9" s="15">
+      <c r="O9" s="12">
         <v>2400</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>3600</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>3600</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>3600</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>3600</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>3600</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>3600</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12">
         <v>2700</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M10" s="12">
         <v>2400</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="12">
         <v>2400</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="12">
         <v>2400</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>3000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>3000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>3000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>3000</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>3000</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12">
         <v>2700</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="12">
+        <v>2700</v>
+      </c>
+      <c r="M11" s="12">
         <v>2400</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N11" s="12">
         <v>2400</v>
       </c>
-      <c r="N11" s="15">
+      <c r="O11" s="12">
         <v>2400</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>3000</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>3000</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>3000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>3000</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>3000</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12">
         <v>2400</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="12">
         <v>2400</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>2400</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="12">
         <v>2400</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="O12" s="12">
+        <v>2400</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>3000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>3000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>3000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>3000</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>3000</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12">
         <v>2400</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="12">
         <v>2400</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="12">
         <v>2400</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="12">
         <v>2400</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
+      <c r="O13" s="12">
+        <v>2400</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>2700</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>2700</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>2700</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>2700</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>2700</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18">
         <v>2400</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>2400</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>2400</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <v>2400</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="8" t="s">
+      <c r="O14" s="18">
+        <v>2400</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
         <v>10800</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>10800</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>10800</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>10800</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>10800</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>10800</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>8400</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>8400</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>8400</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <v>8400</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>8400</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="12">
         <v>8400</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>8400</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="12">
         <v>6000</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="12">
         <v>6000</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="12">
+        <v>6000</v>
+      </c>
+      <c r="M17" s="12">
         <v>5400</v>
       </c>
-      <c r="M17" s="15">
+      <c r="N17" s="12">
         <v>5400</v>
       </c>
-      <c r="N17" s="15">
+      <c r="O17" s="12">
         <v>5400</v>
       </c>
-      <c r="O17" s="15">
+      <c r="P17" s="12">
         <v>5400</v>
       </c>
-      <c r="P17" s="15">
+      <c r="Q17" s="12">
         <v>5400</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="15">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>8400</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>8400</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>8400</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <v>8400</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>8400</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="12">
         <v>8400</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>8400</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
         <v>6000</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="12">
         <v>6000</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="12">
+        <v>6000</v>
+      </c>
+      <c r="M18" s="12">
         <v>5400</v>
       </c>
-      <c r="M18" s="15">
+      <c r="N18" s="12">
         <v>5400</v>
       </c>
-      <c r="N18" s="15">
+      <c r="O18" s="12">
         <v>5400</v>
       </c>
-      <c r="O18" s="15">
+      <c r="P18" s="12">
         <v>5400</v>
       </c>
-      <c r="P18" s="15">
+      <c r="Q18" s="12">
         <v>5400</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="15">
         <v>5400</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>7200</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>7200</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>7200</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <v>7200</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>7200</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="12">
         <v>7200</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="12">
         <v>7200</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="12">
         <v>5400</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="12">
         <v>5400</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="12">
+        <v>5400</v>
+      </c>
+      <c r="M19" s="12">
         <v>4800</v>
       </c>
-      <c r="M19" s="15">
+      <c r="N19" s="12">
         <v>4800</v>
       </c>
-      <c r="N19" s="15">
+      <c r="O19" s="12">
         <v>4800</v>
       </c>
-      <c r="O19" s="15">
+      <c r="P19" s="12">
         <v>4800</v>
       </c>
-      <c r="P19" s="15">
+      <c r="Q19" s="12">
         <v>4800</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="R19" s="15">
         <v>4800</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>7200</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>7200</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>7200</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="12">
         <v>7200</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="12">
         <v>7200</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="12">
         <v>7200</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12">
         <v>5400</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="12">
+        <v>5400</v>
+      </c>
+      <c r="M20" s="12">
         <v>4800</v>
       </c>
-      <c r="M20" s="15">
+      <c r="N20" s="12">
         <v>4800</v>
       </c>
-      <c r="N20" s="15">
+      <c r="O20" s="12">
         <v>4800</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>7200</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>7200</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>7200</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <v>7200</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <v>7200</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <v>7200</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12">
         <v>5400</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="12">
+        <v>5400</v>
+      </c>
+      <c r="M21" s="12">
         <v>4800</v>
       </c>
-      <c r="M21" s="15">
+      <c r="N21" s="12">
         <v>4800</v>
       </c>
-      <c r="N21" s="15">
+      <c r="O21" s="12">
         <v>4800</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>6000</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>6000</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>6000</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <v>6000</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <v>6000</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12">
         <v>5400</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="12">
+        <v>5400</v>
+      </c>
+      <c r="M22" s="12">
         <v>4800</v>
       </c>
-      <c r="M22" s="15">
+      <c r="N22" s="12">
         <v>4800</v>
       </c>
-      <c r="N22" s="15">
+      <c r="O22" s="12">
         <v>4800</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>6000</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>6000</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>6000</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <v>6000</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>6000</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12">
         <v>4800</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="12">
         <v>4800</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="12">
         <v>4800</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="12">
         <v>4800</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="O23" s="12">
+        <v>4800</v>
+      </c>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>6000</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>6000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>6000</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <v>6000</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <v>6000</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="12">
         <v>4800</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="12">
         <v>4800</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="12">
         <v>4800</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="12">
         <v>4800</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="O24" s="12">
+        <v>4800</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>5400</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>5400</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>5400</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="18">
         <v>5400</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <v>5400</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="21">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18">
         <v>4800</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="18">
         <v>4800</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>4800</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="18">
         <v>4800</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="8" t="s">
+      <c r="O25" s="18">
+        <v>4800</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8">
         <v>21600</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>21600</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>21600</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>21600</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>21600</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>21600</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>16800</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>16800</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>16800</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="12">
         <v>16800</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="12">
         <v>16800</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="12">
         <v>16800</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="12">
         <v>16800</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="12">
         <v>12000</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="12">
         <v>12000</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="12">
+        <v>12000</v>
+      </c>
+      <c r="M28" s="12">
         <v>10800</v>
       </c>
-      <c r="M28" s="15">
+      <c r="N28" s="12">
         <v>10800</v>
       </c>
-      <c r="N28" s="15">
+      <c r="O28" s="12">
         <v>10800</v>
       </c>
-      <c r="O28" s="15">
+      <c r="P28" s="12">
         <v>10800</v>
       </c>
-      <c r="P28" s="15">
+      <c r="Q28" s="12">
         <v>10800</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="R28" s="15">
         <v>10800</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>16800</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>16800</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>16800</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>16800</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>16800</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="12">
         <v>16800</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="12">
         <v>16800</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="12">
         <v>12000</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="12">
         <v>12000</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="12">
+        <v>12000</v>
+      </c>
+      <c r="M29" s="12">
         <v>10800</v>
       </c>
-      <c r="M29" s="15">
+      <c r="N29" s="12">
         <v>10800</v>
       </c>
-      <c r="N29" s="15">
+      <c r="O29" s="12">
         <v>10800</v>
       </c>
-      <c r="O29" s="15">
+      <c r="P29" s="12">
         <v>10800</v>
       </c>
-      <c r="P29" s="15">
+      <c r="Q29" s="12">
         <v>10800</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="R29" s="15">
         <v>10800</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>14400</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>14400</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>14400</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="12">
         <v>14400</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="12">
         <v>14400</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="12">
         <v>14400</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="12">
         <v>14400</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="12">
         <v>10800</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="12">
         <v>10800</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="12">
+        <v>10800</v>
+      </c>
+      <c r="M30" s="12">
         <v>9600</v>
       </c>
-      <c r="M30" s="15">
+      <c r="N30" s="12">
         <v>9600</v>
       </c>
-      <c r="N30" s="15">
+      <c r="O30" s="12">
         <v>9600</v>
       </c>
-      <c r="O30" s="15">
+      <c r="P30" s="12">
         <v>9600</v>
       </c>
-      <c r="P30" s="15">
+      <c r="Q30" s="12">
         <v>9600</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="R30" s="15">
         <v>9600</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>14400</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>14400</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>14400</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <v>14400</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>14400</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="12">
         <v>14400</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15">
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12">
         <v>10800</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="12">
+        <v>10800</v>
+      </c>
+      <c r="M31" s="12">
         <v>9600</v>
       </c>
-      <c r="M31" s="15">
+      <c r="N31" s="12">
         <v>9600</v>
       </c>
-      <c r="N31" s="15">
+      <c r="O31" s="12">
         <v>9600</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>14400</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <v>14400</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>14400</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <v>14400</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>14400</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="12">
         <v>14400</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15">
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="12">
         <v>10800</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="12">
+        <v>10800</v>
+      </c>
+      <c r="M32" s="12">
         <v>9600</v>
       </c>
-      <c r="M32" s="15">
+      <c r="N32" s="12">
         <v>9600</v>
       </c>
-      <c r="N32" s="15">
+      <c r="O32" s="12">
         <v>9600</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>12000</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>12000</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>12000</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="12">
         <v>12000</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="12">
         <v>12000</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="12">
         <v>10800</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="12">
+        <v>10800</v>
+      </c>
+      <c r="M33" s="12">
         <v>9600</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N33" s="12">
         <v>9600</v>
       </c>
-      <c r="N33" s="15">
+      <c r="O33" s="12">
         <v>9600</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>12000</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="12">
         <v>12000</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>12000</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="12">
         <v>12000</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="12">
         <v>12000</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="12">
         <v>9600</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="12">
         <v>9600</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="12">
         <v>9600</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="12">
         <v>9600</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+      <c r="O34" s="12">
+        <v>9600</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>12000</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="12">
         <v>12000</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>12000</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="12">
         <v>12000</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>12000</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="12">
         <v>9600</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="12">
         <v>9600</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="12">
         <v>9600</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="12">
         <v>9600</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="17"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
+      <c r="O35" s="12">
+        <v>9600</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="18">
         <v>10800</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="18">
         <v>10800</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="18">
         <v>10800</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="18">
         <v>10800</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="18">
         <v>10800</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21">
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="18">
         <v>9600</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="18">
         <v>9600</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="18">
         <v>9600</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="18">
         <v>9600</v>
       </c>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="8" t="s">
+      <c r="O36" s="18">
+        <v>9600</v>
+      </c>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8">
         <v>43200</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <v>43200</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <v>43200</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <v>43200</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="12">
         <v>43200</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="12">
         <v>43200</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>33600</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="12">
         <v>33600</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="12">
         <v>33600</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="12">
         <v>33600</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="12">
         <v>33600</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="12">
         <v>33600</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="12">
         <v>33600</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="12">
         <v>24000</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="12">
         <v>24000</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="12">
+        <v>24000</v>
+      </c>
+      <c r="M39" s="12">
         <v>21600</v>
       </c>
-      <c r="M39" s="15">
+      <c r="N39" s="12">
         <v>21600</v>
       </c>
-      <c r="N39" s="15">
+      <c r="O39" s="12">
         <v>21600</v>
       </c>
-      <c r="O39" s="15">
+      <c r="P39" s="12">
         <v>21600</v>
       </c>
-      <c r="P39" s="15">
+      <c r="Q39" s="12">
         <v>21600</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="R39" s="15">
         <v>21600</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="12">
         <v>33600</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="12">
         <v>33600</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="12">
         <v>33600</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="12">
         <v>33600</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="12">
         <v>33600</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="12">
         <v>33600</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="12">
         <v>33600</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="12">
         <v>24000</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="12">
         <v>24000</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="12">
+        <v>24000</v>
+      </c>
+      <c r="M40" s="12">
         <v>21600</v>
       </c>
-      <c r="M40" s="15">
+      <c r="N40" s="12">
         <v>21600</v>
       </c>
-      <c r="N40" s="15">
+      <c r="O40" s="12">
         <v>21600</v>
       </c>
-      <c r="O40" s="15">
+      <c r="P40" s="12">
         <v>21600</v>
       </c>
-      <c r="P40" s="15">
+      <c r="Q40" s="12">
         <v>21600</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="R40" s="15">
         <v>21600</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>28800</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="12">
         <v>28800</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="12">
         <v>28800</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="12">
         <v>28800</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="12">
         <v>28800</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="12">
         <v>28800</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="12">
         <v>28800</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="12">
         <v>21600</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="12">
         <v>21600</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="12">
+        <v>21600</v>
+      </c>
+      <c r="M41" s="12">
         <v>19200</v>
       </c>
-      <c r="M41" s="15">
+      <c r="N41" s="12">
         <v>19200</v>
       </c>
-      <c r="N41" s="15">
+      <c r="O41" s="12">
         <v>19200</v>
       </c>
-      <c r="O41" s="15">
+      <c r="P41" s="12">
         <v>19200</v>
       </c>
-      <c r="P41" s="15">
+      <c r="Q41" s="12">
         <v>19200</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="R41" s="15">
         <v>19200</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="12">
         <v>28800</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="12">
         <v>28800</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="12">
         <v>28800</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="12">
         <v>28800</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="12">
         <v>28800</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="12">
         <v>28800</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="15">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="12">
         <v>21600</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="12">
+        <v>21600</v>
+      </c>
+      <c r="M42" s="12">
         <v>19200</v>
       </c>
-      <c r="M42" s="15">
+      <c r="N42" s="12">
         <v>19200</v>
       </c>
-      <c r="N42" s="15">
+      <c r="O42" s="12">
         <v>19200</v>
       </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="12">
         <v>28800</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="12">
         <v>28800</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="12">
         <v>28800</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="12">
         <v>28800</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>28800</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="12">
         <v>28800</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="15">
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="12">
         <v>21600</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="12">
+        <v>21600</v>
+      </c>
+      <c r="M43" s="12">
         <v>19200</v>
       </c>
-      <c r="M43" s="15">
+      <c r="N43" s="12">
         <v>19200</v>
       </c>
-      <c r="N43" s="15">
+      <c r="O43" s="12">
         <v>19200</v>
       </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="12">
         <v>24000</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="12">
         <v>24000</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="12">
         <v>24000</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="12">
         <v>24000</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="12">
         <v>24000</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="15">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="12">
         <v>21600</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="12">
+        <v>21600</v>
+      </c>
+      <c r="M44" s="12">
         <v>19200</v>
       </c>
-      <c r="M44" s="15">
+      <c r="N44" s="12">
         <v>19200</v>
       </c>
-      <c r="N44" s="15">
+      <c r="O44" s="12">
         <v>19200</v>
       </c>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="17"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="12">
         <v>24000</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="12">
         <v>24000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>24000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="12">
         <v>24000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="12">
         <v>24000</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="15">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="12">
         <v>19200</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="12">
         <v>19200</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="12">
         <v>19200</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="12">
         <v>19200</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="17"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14" t="s">
+      <c r="O45" s="12">
+        <v>19200</v>
+      </c>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="12">
         <v>24000</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="12">
         <v>24000</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="12">
         <v>24000</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="12">
         <v>24000</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="12">
         <v>24000</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="15">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="12">
         <v>19200</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="12">
         <v>19200</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="12">
         <v>19200</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="12">
         <v>19200</v>
       </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20" t="s">
+      <c r="O46" s="12">
+        <v>19200</v>
+      </c>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="18">
         <v>21600</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="18">
         <v>21600</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="18">
         <v>21600</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="18">
         <v>21600</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="18">
         <v>21600</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="21">
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="18">
         <v>19200</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="18">
         <v>19200</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="18">
         <v>19200</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="18">
         <v>19200</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="23"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="24" t="s">
+      <c r="O47" s="18">
+        <v>19200</v>
+      </c>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="26"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="27" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="34"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8">
         <f>D4/5*1.5</f>
         <v>1620</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="8">
         <f>E4/5*1.5</f>
         <v>1620</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="8">
         <f>F4/5*1.5</f>
         <v>1620</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="12"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="12">
         <f t="shared" ref="C50:E59" si="0">C5/5*1.5</f>
         <v>1620</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="12">
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="12">
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="17"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30" t="s">
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="12">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="12">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="F51" s="15">
-        <f t="shared" ref="F51:P51" si="1">F6/5*1.5</f>
+      <c r="F51" s="12">
+        <f t="shared" ref="F51:Q51" si="1">F6/5*1.5</f>
         <v>1260</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="12">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="12">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="12">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="12">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="12">
+        <f t="shared" ref="L51" si="2">L6/5*1.5</f>
+        <v>900</v>
+      </c>
+      <c r="M51" s="12">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="M51" s="15">
+      <c r="N51" s="12">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="N51" s="15">
+      <c r="O51" s="12">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="O51" s="15">
+      <c r="P51" s="12">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="P51" s="15">
+      <c r="Q51" s="12">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="Q51" s="18">
-        <f t="shared" ref="Q51" si="2">Q6/5*1.5</f>
+      <c r="R51" s="15">
+        <f t="shared" ref="R51" si="3">R6/5*1.5</f>
         <v>810</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="12">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="12">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="12">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="F52" s="15">
-        <f t="shared" ref="F52:P52" si="3">F7/5*1.5</f>
+      <c r="F52" s="12">
+        <f t="shared" ref="F52:Q52" si="4">F7/5*1.5</f>
         <v>1260</v>
       </c>
-      <c r="G52" s="15">
-        <f t="shared" si="3"/>
+      <c r="G52" s="12">
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
-      <c r="H52" s="15">
-        <f t="shared" si="3"/>
+      <c r="H52" s="12">
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
-      <c r="I52" s="15">
-        <f t="shared" si="3"/>
+      <c r="I52" s="12">
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" si="3"/>
+      <c r="J52" s="12">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" si="3"/>
+      <c r="K52" s="12">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="L52" s="15">
-        <f t="shared" si="3"/>
+      <c r="L52" s="12">
+        <f t="shared" ref="L52" si="5">L7/5*1.5</f>
+        <v>900</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
-      <c r="M52" s="15">
-        <f t="shared" si="3"/>
+      <c r="N52" s="12">
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
-      <c r="N52" s="15">
-        <f t="shared" si="3"/>
+      <c r="O52" s="12">
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
-      <c r="O52" s="15">
-        <f t="shared" si="3"/>
+      <c r="P52" s="12">
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
-      <c r="P52" s="15">
-        <f t="shared" si="3"/>
+      <c r="Q52" s="12">
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
-      <c r="Q52" s="18">
-        <f t="shared" ref="Q52" si="4">Q7/5*1.5</f>
+      <c r="R52" s="15">
+        <f t="shared" ref="R52" si="6">R7/5*1.5</f>
         <v>810</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="F53" s="15">
-        <f t="shared" ref="F53:P53" si="5">F8/5*1.5</f>
+      <c r="F53" s="12">
+        <f t="shared" ref="F53:Q53" si="7">F8/5*1.5</f>
         <v>1080</v>
       </c>
-      <c r="G53" s="15">
-        <f t="shared" si="5"/>
+      <c r="G53" s="12">
+        <f t="shared" si="7"/>
         <v>1080</v>
       </c>
-      <c r="H53" s="15">
-        <f t="shared" si="5"/>
+      <c r="H53" s="12">
+        <f t="shared" si="7"/>
         <v>1080</v>
       </c>
-      <c r="I53" s="15">
-        <f t="shared" si="5"/>
+      <c r="I53" s="12">
+        <f t="shared" si="7"/>
         <v>1080</v>
       </c>
-      <c r="J53" s="15">
-        <f t="shared" si="5"/>
+      <c r="J53" s="12">
+        <f t="shared" si="7"/>
         <v>810</v>
       </c>
-      <c r="K53" s="15">
-        <f t="shared" si="5"/>
+      <c r="K53" s="12">
+        <f t="shared" si="7"/>
         <v>810</v>
       </c>
-      <c r="L53" s="15">
-        <f t="shared" si="5"/>
+      <c r="L53" s="12">
+        <f t="shared" ref="L53" si="8">L8/5*1.5</f>
+        <v>810</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="M53" s="15">
-        <f t="shared" si="5"/>
+      <c r="N53" s="12">
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="N53" s="15">
-        <f t="shared" si="5"/>
+      <c r="O53" s="12">
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="O53" s="15">
-        <f t="shared" si="5"/>
+      <c r="P53" s="12">
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P53" s="15">
-        <f t="shared" si="5"/>
+      <c r="Q53" s="12">
+        <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="Q53" s="18">
-        <f t="shared" ref="Q53" si="6">Q8/5*1.5</f>
+      <c r="R53" s="15">
+        <f t="shared" ref="R53" si="9">R8/5*1.5</f>
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="F54" s="15">
-        <f t="shared" ref="F54:H55" si="7">F9/5*1.5</f>
+      <c r="F54" s="12">
+        <f t="shared" ref="F54:H55" si="10">F9/5*1.5</f>
         <v>1080</v>
       </c>
-      <c r="G54" s="15">
-        <f t="shared" si="7"/>
+      <c r="G54" s="12">
+        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
-      <c r="H54" s="15">
-        <f t="shared" si="7"/>
+      <c r="H54" s="12">
+        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="15">
-        <f t="shared" ref="K54:N59" si="8">K9/5*1.5</f>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="12">
+        <f t="shared" ref="K54:O59" si="11">K9/5*1.5</f>
         <v>810</v>
       </c>
-      <c r="L54" s="15">
-        <f t="shared" si="8"/>
+      <c r="L54" s="12">
+        <f t="shared" ref="L54" si="12">L9/5*1.5</f>
+        <v>810</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="M54" s="15">
-        <f t="shared" si="8"/>
+      <c r="N54" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="N54" s="15">
-        <f t="shared" si="8"/>
+      <c r="O54" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="17"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30" t="s">
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="F55" s="15">
-        <f t="shared" si="7"/>
+      <c r="F55" s="12">
+        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
-      <c r="G55" s="15">
-        <f t="shared" si="7"/>
+      <c r="G55" s="12">
+        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
-      <c r="H55" s="15">
-        <f t="shared" si="7"/>
+      <c r="H55" s="12">
+        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15">
-        <f t="shared" si="8"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="12">
+        <f t="shared" si="11"/>
         <v>810</v>
       </c>
-      <c r="L55" s="15">
-        <f t="shared" si="8"/>
+      <c r="L55" s="12">
+        <f t="shared" ref="L55" si="13">L10/5*1.5</f>
+        <v>810</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="M55" s="15">
-        <f t="shared" si="8"/>
+      <c r="N55" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="N55" s="15">
-        <f t="shared" si="8"/>
+      <c r="O55" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="17"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="F56" s="15">
-        <f t="shared" ref="F56:G59" si="9">F11/5*1.5</f>
+      <c r="F56" s="12">
+        <f t="shared" ref="F56:G59" si="14">F11/5*1.5</f>
         <v>900</v>
       </c>
-      <c r="G56" s="15">
-        <f t="shared" si="9"/>
+      <c r="G56" s="12">
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="15">
-        <f t="shared" si="8"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="12">
+        <f t="shared" si="11"/>
         <v>810</v>
       </c>
-      <c r="L56" s="15">
-        <f t="shared" si="8"/>
+      <c r="L56" s="12">
+        <f t="shared" ref="L56" si="15">L11/5*1.5</f>
+        <v>810</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="M56" s="15">
-        <f t="shared" si="8"/>
+      <c r="N56" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="N56" s="15">
-        <f t="shared" si="8"/>
+      <c r="O56" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="17"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30" t="s">
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="F57" s="15">
-        <f t="shared" si="9"/>
+      <c r="F57" s="12">
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
-      <c r="G57" s="15">
-        <f t="shared" si="9"/>
+      <c r="G57" s="12">
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="15">
-        <f t="shared" si="8"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="L57" s="15">
-        <f t="shared" si="8"/>
+      <c r="L57" s="12">
+        <f t="shared" ref="L57" si="16">L12/5*1.5</f>
         <v>720</v>
       </c>
-      <c r="M57" s="15">
-        <f t="shared" si="8"/>
+      <c r="M57" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="N57" s="15">
-        <f t="shared" si="8"/>
+      <c r="N57" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="17"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30" t="s">
+      <c r="O57" s="12">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="F58" s="15">
-        <f t="shared" si="9"/>
+      <c r="F58" s="12">
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
-      <c r="G58" s="15">
-        <f t="shared" si="9"/>
+      <c r="G58" s="12">
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="15">
-        <f t="shared" si="8"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="L58" s="15">
-        <f t="shared" si="8"/>
+      <c r="L58" s="12">
+        <f t="shared" ref="L58" si="17">L13/5*1.5</f>
         <v>720</v>
       </c>
-      <c r="M58" s="15">
-        <f t="shared" si="8"/>
+      <c r="M58" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="N58" s="15">
-        <f t="shared" si="8"/>
+      <c r="N58" s="12">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="17"/>
-    </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32" t="s">
+      <c r="O58" s="12">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="18">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="18">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="18">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="F59" s="21">
-        <f t="shared" si="9"/>
+      <c r="F59" s="18">
+        <f t="shared" si="14"/>
         <v>810</v>
       </c>
-      <c r="G59" s="21">
-        <f t="shared" si="9"/>
+      <c r="G59" s="18">
+        <f t="shared" si="14"/>
         <v>810</v>
       </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="21">
-        <f t="shared" si="8"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="18">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="L59" s="21">
-        <f t="shared" si="8"/>
+      <c r="L59" s="18">
+        <f t="shared" ref="L59" si="18">L14/5*1.5</f>
         <v>720</v>
       </c>
-      <c r="M59" s="21">
-        <f t="shared" si="8"/>
+      <c r="M59" s="18">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="N59" s="21">
-        <f t="shared" si="8"/>
+      <c r="N59" s="18">
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="23"/>
+      <c r="O59" s="18">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A48:R48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3221,2369 +3389,2519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="14.7109375" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
         <v>4500</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>4500</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>4500</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>4500</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>4500</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>4500</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>3500</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>3500</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>3500</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>3500</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>3500</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="12">
         <v>3500</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="12">
         <v>3500</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="12">
         <v>2500</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="12">
         <v>2500</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
+        <v>2500</v>
+      </c>
+      <c r="M5" s="12">
         <v>2250</v>
       </c>
-      <c r="M5" s="15">
+      <c r="N5" s="12">
         <v>2250</v>
       </c>
-      <c r="N5" s="15">
+      <c r="O5" s="12">
         <v>2250</v>
       </c>
-      <c r="O5" s="15">
+      <c r="P5" s="12">
         <v>2250</v>
       </c>
-      <c r="P5" s="15">
+      <c r="Q5" s="12">
         <v>2250</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="R5" s="15">
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>3500</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>3500</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>3500</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>3500</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>3500</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>3500</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>3500</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <v>2500</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="12">
         <v>2500</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
+        <v>2500</v>
+      </c>
+      <c r="M6" s="12">
         <v>2250</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="12">
         <v>2250</v>
       </c>
-      <c r="N6" s="15">
+      <c r="O6" s="12">
         <v>2250</v>
       </c>
-      <c r="O6" s="15">
+      <c r="P6" s="12">
         <v>2250</v>
       </c>
-      <c r="P6" s="15">
+      <c r="Q6" s="12">
         <v>2250</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="15">
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>3000</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>3000</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>3000</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>3000</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>3000</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>3000</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>3000</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
         <v>2250</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>2250</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
+        <v>2250</v>
+      </c>
+      <c r="M7" s="12">
         <v>2000</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="12">
         <v>2000</v>
       </c>
-      <c r="N7" s="15">
+      <c r="O7" s="12">
         <v>2000</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="12">
         <v>2000</v>
       </c>
-      <c r="P7" s="15">
+      <c r="Q7" s="12">
         <v>2000</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="R7" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>3000</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>3000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>3000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>3000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>3000</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>3000</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12">
         <v>2250</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
+        <v>2250</v>
+      </c>
+      <c r="M8" s="12">
         <v>2000</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="12">
         <v>2000</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="12">
         <v>2000</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>3000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>3000</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>3000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>3000</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>3000</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>3000</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12">
         <v>2250</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
+        <v>2250</v>
+      </c>
+      <c r="M9" s="12">
         <v>2000</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="12">
         <v>2000</v>
       </c>
-      <c r="N9" s="15">
+      <c r="O9" s="12">
         <v>2000</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>2500</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>2500</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>2500</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>2500</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>2500</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12">
         <v>2250</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="12">
+        <v>2250</v>
+      </c>
+      <c r="M10" s="12">
         <v>2000</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="12">
         <v>2000</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="12">
         <v>2000</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>2500</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>2500</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>2500</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>2500</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>2500</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12">
         <v>2000</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="12">
         <v>2000</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="12">
         <v>2000</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="12">
         <v>2000</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="O11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>2500</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>2500</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>2500</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>2500</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>2500</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12">
         <v>2000</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="12">
         <v>2000</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>2000</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="12">
         <v>2000</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
+      <c r="O12" s="12">
+        <v>2000</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>2250</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <v>2250</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>2250</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>2250</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>2250</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18">
         <v>2000</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>2000</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>2000</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <v>2000</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="8" t="s">
+      <c r="O13" s="18">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
         <v>9000</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>9000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>9000</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>9000</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>9000</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>9000</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>7000</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>7000</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>7000</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="12">
         <v>7000</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>7000</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="12">
         <v>7000</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="12">
         <v>7000</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="12">
         <v>5000</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="12">
         <v>5000</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="12">
         <v>4500</v>
       </c>
-      <c r="M16" s="15">
+      <c r="N16" s="12">
         <v>4500</v>
       </c>
-      <c r="N16" s="15">
+      <c r="O16" s="12">
         <v>4500</v>
       </c>
-      <c r="O16" s="15">
+      <c r="P16" s="12">
         <v>4500</v>
       </c>
-      <c r="P16" s="15">
+      <c r="Q16" s="12">
         <v>4500</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="R16" s="15">
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>7000</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>7000</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>7000</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <v>7000</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>7000</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="12">
         <v>7000</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>7000</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="12">
         <v>5000</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="12">
         <v>5000</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M17" s="12">
         <v>4500</v>
       </c>
-      <c r="M17" s="15">
+      <c r="N17" s="12">
         <v>4500</v>
       </c>
-      <c r="N17" s="15">
+      <c r="O17" s="12">
         <v>4500</v>
       </c>
-      <c r="O17" s="15">
+      <c r="P17" s="12">
         <v>4500</v>
       </c>
-      <c r="P17" s="15">
+      <c r="Q17" s="12">
         <v>4500</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="15">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>6000</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>6000</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>6000</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <v>6000</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>6000</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="12">
         <v>6000</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>6000</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
         <v>4500</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="12">
         <v>4500</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="12">
+        <v>4500</v>
+      </c>
+      <c r="M18" s="12">
         <v>4000</v>
       </c>
-      <c r="M18" s="15">
+      <c r="N18" s="12">
         <v>4000</v>
       </c>
-      <c r="N18" s="15">
+      <c r="O18" s="12">
         <v>4000</v>
       </c>
-      <c r="O18" s="15">
+      <c r="P18" s="12">
         <v>4000</v>
       </c>
-      <c r="P18" s="15">
+      <c r="Q18" s="12">
         <v>4000</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="R18" s="15">
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>6000</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>6000</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>6000</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <v>6000</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>6000</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="12">
         <v>6000</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12">
         <v>4500</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="12">
+        <v>4500</v>
+      </c>
+      <c r="M19" s="12">
         <v>4000</v>
       </c>
-      <c r="M19" s="15">
+      <c r="N19" s="12">
         <v>4000</v>
       </c>
-      <c r="N19" s="15">
+      <c r="O19" s="12">
         <v>4000</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>6000</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>6000</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>6000</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="12">
         <v>6000</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="12">
         <v>6000</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="12">
         <v>6000</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12">
         <v>4500</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="12">
+        <v>4500</v>
+      </c>
+      <c r="M20" s="12">
         <v>4000</v>
       </c>
-      <c r="M20" s="15">
+      <c r="N20" s="12">
         <v>4000</v>
       </c>
-      <c r="N20" s="15">
+      <c r="O20" s="12">
         <v>4000</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>5000</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>5000</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>5000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <v>5000</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <v>5000</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12">
         <v>4500</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="12">
+        <v>4500</v>
+      </c>
+      <c r="M21" s="12">
         <v>4000</v>
       </c>
-      <c r="M21" s="15">
+      <c r="N21" s="12">
         <v>4000</v>
       </c>
-      <c r="N21" s="15">
+      <c r="O21" s="12">
         <v>4000</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>5000</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>5000</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>5000</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <v>5000</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <v>5000</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12">
         <v>4000</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="12">
         <v>4000</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="12">
         <v>4000</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="12">
         <v>4000</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="O22" s="12">
+        <v>4000</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>5000</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>5000</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>5000</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <v>5000</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>5000</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12">
         <v>4000</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="12">
         <v>4000</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="12">
         <v>4000</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="12">
         <v>4000</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
+      <c r="O23" s="12">
+        <v>4000</v>
+      </c>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>4500</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>4500</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>4500</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>4500</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <v>4500</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18">
         <v>4000</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="18">
         <v>4000</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>4000</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="18">
         <v>4000</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="8" t="s">
+      <c r="O24" s="18">
+        <v>4000</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8">
         <v>18000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>18000</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <v>18000</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>18000</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <v>18000</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="12">
         <v>18000</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>14000</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>14000</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>14000</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="12">
         <v>14000</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="12">
         <v>14000</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="12">
         <v>14000</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="12">
         <v>14000</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="12">
         <v>10000</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="12">
         <v>10000</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="12">
         <v>9000</v>
       </c>
-      <c r="M27" s="15">
+      <c r="N27" s="12">
         <v>9000</v>
       </c>
-      <c r="N27" s="15">
+      <c r="O27" s="12">
         <v>9000</v>
       </c>
-      <c r="O27" s="15">
+      <c r="P27" s="12">
         <v>9000</v>
       </c>
-      <c r="P27" s="15">
+      <c r="Q27" s="12">
         <v>9000</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="R27" s="15">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>14000</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>14000</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>14000</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="12">
         <v>14000</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="12">
         <v>14000</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="12">
         <v>14000</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="12">
         <v>14000</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="12">
         <v>10000</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="12">
         <v>10000</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M28" s="12">
         <v>9000</v>
       </c>
-      <c r="M28" s="15">
+      <c r="N28" s="12">
         <v>9000</v>
       </c>
-      <c r="N28" s="15">
+      <c r="O28" s="12">
         <v>9000</v>
       </c>
-      <c r="O28" s="15">
+      <c r="P28" s="12">
         <v>9000</v>
       </c>
-      <c r="P28" s="15">
+      <c r="Q28" s="12">
         <v>9000</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="R28" s="15">
         <v>9000</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>12000</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>12000</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>12000</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>12000</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>12000</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="12">
         <v>12000</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="12">
         <v>12000</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="12">
         <v>9000</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="12">
         <v>9000</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="12">
+        <v>9000</v>
+      </c>
+      <c r="M29" s="12">
         <v>8000</v>
       </c>
-      <c r="M29" s="15">
+      <c r="N29" s="12">
         <v>8000</v>
       </c>
-      <c r="N29" s="15">
+      <c r="O29" s="12">
         <v>8000</v>
       </c>
-      <c r="O29" s="15">
+      <c r="P29" s="12">
         <v>8000</v>
       </c>
-      <c r="P29" s="15">
+      <c r="Q29" s="12">
         <v>8000</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="R29" s="15">
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>12000</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>12000</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>12000</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="12">
         <v>12000</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="12">
         <v>12000</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="12">
         <v>12000</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12">
         <v>9000</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="12">
+        <v>9000</v>
+      </c>
+      <c r="M30" s="12">
         <v>8000</v>
       </c>
-      <c r="M30" s="15">
+      <c r="N30" s="12">
         <v>8000</v>
       </c>
-      <c r="N30" s="15">
+      <c r="O30" s="12">
         <v>8000</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>12000</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>12000</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>12000</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <v>12000</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>12000</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="12">
         <v>12000</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15">
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12">
         <v>9000</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="12">
+        <v>9000</v>
+      </c>
+      <c r="M31" s="12">
         <v>8000</v>
       </c>
-      <c r="M31" s="15">
+      <c r="N31" s="12">
         <v>8000</v>
       </c>
-      <c r="N31" s="15">
+      <c r="O31" s="12">
         <v>8000</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>10000</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <v>10000</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>10000</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <v>10000</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>10000</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="12">
         <v>9000</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="12">
+        <v>9000</v>
+      </c>
+      <c r="M32" s="12">
         <v>8000</v>
       </c>
-      <c r="M32" s="15">
+      <c r="N32" s="12">
         <v>8000</v>
       </c>
-      <c r="N32" s="15">
+      <c r="O32" s="12">
         <v>8000</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>10000</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>10000</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>10000</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="12">
         <v>10000</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="12">
         <v>10000</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="12">
         <v>8000</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="12">
         <v>8000</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="12">
         <v>8000</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="12">
         <v>8000</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="O33" s="12">
+        <v>8000</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>10000</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="12">
         <v>10000</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>10000</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="12">
         <v>10000</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="12">
         <v>10000</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="12">
         <v>8000</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="12">
         <v>8000</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="12">
         <v>8000</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="12">
         <v>8000</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
+      <c r="O34" s="12">
+        <v>8000</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="18">
         <v>9000</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="18">
         <v>9000</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="18">
         <v>9000</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="18">
         <v>9000</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="18">
         <v>9000</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18">
         <v>8000</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="18">
         <v>8000</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="18">
         <v>8000</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="18">
         <v>8000</v>
       </c>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="8" t="s">
+      <c r="O35" s="18">
+        <v>8000</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="20"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8">
         <v>36000</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="8">
         <v>36000</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="8">
         <v>36000</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>36000</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="12">
         <v>36000</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="12">
         <v>36000</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="17"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <v>28000</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="12">
         <v>28000</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="12">
         <v>28000</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="12">
         <v>28000</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="12">
         <v>28000</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="12">
         <v>28000</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="12">
         <v>28000</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="12">
         <v>20000</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="12">
         <v>20000</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="12">
+        <v>20000</v>
+      </c>
+      <c r="M38" s="12">
         <v>18000</v>
       </c>
-      <c r="M38" s="15">
+      <c r="N38" s="12">
         <v>18000</v>
       </c>
-      <c r="N38" s="15">
+      <c r="O38" s="12">
         <v>18000</v>
       </c>
-      <c r="O38" s="15">
+      <c r="P38" s="12">
         <v>18000</v>
       </c>
-      <c r="P38" s="15">
+      <c r="Q38" s="12">
         <v>18000</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="R38" s="15">
         <v>18000</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>28000</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="12">
         <v>28000</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="12">
         <v>28000</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="12">
         <v>28000</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="12">
         <v>28000</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="12">
         <v>28000</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="12">
         <v>28000</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="12">
         <v>20000</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="12">
         <v>20000</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="12">
+        <v>20000</v>
+      </c>
+      <c r="M39" s="12">
         <v>18000</v>
       </c>
-      <c r="M39" s="15">
+      <c r="N39" s="12">
         <v>18000</v>
       </c>
-      <c r="N39" s="15">
+      <c r="O39" s="12">
         <v>18000</v>
       </c>
-      <c r="O39" s="15">
+      <c r="P39" s="12">
         <v>18000</v>
       </c>
-      <c r="P39" s="15">
+      <c r="Q39" s="12">
         <v>18000</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="R39" s="15">
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="12">
         <v>24000</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="12">
         <v>24000</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="12">
         <v>24000</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="12">
         <v>24000</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="12">
         <v>24000</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="12">
         <v>24000</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="12">
         <v>24000</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="12">
         <v>18000</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="12">
         <v>18000</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="12">
+        <v>18000</v>
+      </c>
+      <c r="M40" s="12">
         <v>16000</v>
       </c>
-      <c r="M40" s="15">
+      <c r="N40" s="12">
         <v>16000</v>
       </c>
-      <c r="N40" s="15">
+      <c r="O40" s="12">
         <v>16000</v>
       </c>
-      <c r="O40" s="15">
+      <c r="P40" s="12">
         <v>16000</v>
       </c>
-      <c r="P40" s="15">
+      <c r="Q40" s="12">
         <v>16000</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="R40" s="15">
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>24000</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="12">
         <v>24000</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="12">
         <v>24000</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="12">
         <v>24000</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="12">
         <v>24000</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="12">
         <v>24000</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="15">
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="12">
         <v>18000</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="12">
+        <v>18000</v>
+      </c>
+      <c r="M41" s="12">
         <v>16000</v>
       </c>
-      <c r="M41" s="15">
+      <c r="N41" s="12">
         <v>16000</v>
       </c>
-      <c r="N41" s="15">
+      <c r="O41" s="12">
         <v>16000</v>
       </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="17"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="14"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="12">
         <v>24000</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="12">
         <v>24000</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="12">
         <v>24000</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="12">
         <v>24000</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="12">
         <v>24000</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="12">
         <v>24000</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="15">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="12">
         <v>18000</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="12">
+        <v>18000</v>
+      </c>
+      <c r="M42" s="12">
         <v>16000</v>
       </c>
-      <c r="M42" s="15">
+      <c r="N42" s="12">
         <v>16000</v>
       </c>
-      <c r="N42" s="15">
+      <c r="O42" s="12">
         <v>16000</v>
       </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="12">
         <v>20000</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="12">
         <v>20000</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="12">
         <v>20000</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="12">
         <v>20000</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>20000</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="15">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="12">
         <v>18000</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="12">
+        <v>18000</v>
+      </c>
+      <c r="M43" s="12">
         <v>16000</v>
       </c>
-      <c r="M43" s="15">
+      <c r="N43" s="12">
         <v>16000</v>
       </c>
-      <c r="N43" s="15">
+      <c r="O43" s="12">
         <v>16000</v>
       </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="12">
         <v>20000</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="12">
         <v>20000</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="12">
         <v>20000</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="12">
         <v>20000</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="12">
         <v>20000</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="15">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="12">
         <v>16000</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="12">
         <v>16000</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="12">
         <v>16000</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="12">
         <v>16000</v>
       </c>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="17"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
+      <c r="O44" s="12">
+        <v>16000</v>
+      </c>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="12">
         <v>20000</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="12">
         <v>20000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>20000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="12">
         <v>20000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="12">
         <v>20000</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="15">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="12">
         <v>16000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="12">
         <v>16000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="12">
         <v>16000</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="12">
         <v>16000</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="17"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20" t="s">
+      <c r="O45" s="12">
+        <v>16000</v>
+      </c>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="18">
         <v>18000</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="18">
         <v>18000</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="18">
         <v>18000</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="18">
         <v>18000</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="18">
         <v>18000</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="21">
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18">
         <v>16000</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="18">
         <v>16000</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="18">
         <v>16000</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="18">
         <v>16000</v>
       </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="23"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="24" t="s">
+      <c r="O46" s="18">
+        <v>16000</v>
+      </c>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
         <v>1350</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="8">
         <v>1350</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="8">
         <v>1350</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="12"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="9"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="12">
         <v>1350</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="12">
         <v>1350</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>1350</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="17"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30" t="s">
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="12">
         <v>1050</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="12">
         <v>1050</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="12">
         <v>1050</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="12">
         <v>1050</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="12">
         <v>1050</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="12">
         <v>1050</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="12">
         <v>1050</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="12">
         <v>750</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="12">
         <v>750</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="12">
+        <v>750</v>
+      </c>
+      <c r="M50" s="12">
         <v>675</v>
       </c>
-      <c r="M50" s="15">
+      <c r="N50" s="12">
         <v>675</v>
       </c>
-      <c r="N50" s="15">
+      <c r="O50" s="12">
         <v>675</v>
       </c>
-      <c r="O50" s="15">
+      <c r="P50" s="12">
         <v>675</v>
       </c>
-      <c r="P50" s="15">
+      <c r="Q50" s="12">
         <v>675</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="R50" s="15">
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="12">
         <v>1050</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="12">
         <v>1050</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>1050</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="12">
         <v>1050</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <v>1050</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="12">
         <v>1050</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="12">
         <v>1050</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="12">
         <v>750</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="12">
         <v>750</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="12">
+        <v>750</v>
+      </c>
+      <c r="M51" s="12">
         <v>675</v>
       </c>
-      <c r="M51" s="15">
+      <c r="N51" s="12">
         <v>675</v>
       </c>
-      <c r="N51" s="15">
+      <c r="O51" s="12">
         <v>675</v>
       </c>
-      <c r="O51" s="15">
+      <c r="P51" s="12">
         <v>675</v>
       </c>
-      <c r="P51" s="15">
+      <c r="Q51" s="12">
         <v>675</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="R51" s="15">
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="12">
         <v>900</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="12">
         <v>900</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="12">
         <v>900</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="12">
         <v>900</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="12">
         <v>900</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="12">
         <v>900</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="12">
         <v>900</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="12">
         <v>675</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="12">
         <v>675</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="12">
+        <v>675</v>
+      </c>
+      <c r="M52" s="12">
         <v>600</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="12">
         <v>600</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="12">
         <v>600</v>
       </c>
-      <c r="O52" s="15">
+      <c r="P52" s="12">
         <v>600</v>
       </c>
-      <c r="P52" s="15">
+      <c r="Q52" s="12">
         <v>600</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="R52" s="15">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="12">
         <v>900</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="12">
         <v>900</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <v>900</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="12">
         <v>900</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="12">
         <v>900</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="12">
         <v>900</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15">
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="12">
         <v>675</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="12">
+        <v>675</v>
+      </c>
+      <c r="M53" s="12">
         <v>600</v>
       </c>
-      <c r="M53" s="15">
+      <c r="N53" s="12">
         <v>600</v>
       </c>
-      <c r="N53" s="15">
+      <c r="O53" s="12">
         <v>600</v>
       </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="17"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="12">
         <v>900</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="12">
         <v>900</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="12">
         <v>900</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="12">
         <v>900</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="12">
         <v>900</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="12">
         <v>900</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="15">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="12">
         <v>675</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="12">
+        <v>675</v>
+      </c>
+      <c r="M54" s="12">
         <v>600</v>
       </c>
-      <c r="M54" s="15">
+      <c r="N54" s="12">
         <v>600</v>
       </c>
-      <c r="N54" s="15">
+      <c r="O54" s="12">
         <v>600</v>
       </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="17"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30" t="s">
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="12">
         <v>750</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="12">
         <v>750</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <v>750</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="12">
         <v>750</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="12">
         <v>750</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15">
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="12">
         <v>675</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="12">
+        <v>675</v>
+      </c>
+      <c r="M55" s="12">
         <v>600</v>
       </c>
-      <c r="M55" s="15">
+      <c r="N55" s="12">
         <v>600</v>
       </c>
-      <c r="N55" s="15">
+      <c r="O55" s="12">
         <v>600</v>
       </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="17"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="12">
         <v>750</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="12">
         <v>750</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <v>750</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="12">
         <v>750</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="12">
         <v>750</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="15">
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="12">
         <v>600</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="12">
         <v>600</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="12">
         <v>600</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="12">
         <v>600</v>
       </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="17"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30" t="s">
+      <c r="O56" s="12">
+        <v>600</v>
+      </c>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="12">
         <v>750</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="12">
         <v>750</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>750</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="12">
         <v>750</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="12">
         <v>750</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="15">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="12">
         <v>600</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="12">
         <v>600</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="12">
         <v>600</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="12">
         <v>600</v>
       </c>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="17"/>
-    </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32" t="s">
+      <c r="O57" s="12">
+        <v>600</v>
+      </c>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="18">
         <v>675</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="18">
         <v>675</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="18">
         <v>675</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="18">
         <v>675</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="18">
         <v>675</v>
       </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="21">
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18">
         <v>600</v>
       </c>
-      <c r="L58" s="21">
+      <c r="L58" s="18">
         <v>600</v>
       </c>
-      <c r="M58" s="21">
+      <c r="M58" s="18">
         <v>600</v>
       </c>
-      <c r="N58" s="21">
+      <c r="N58" s="18">
         <v>600</v>
       </c>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="23"/>
+      <c r="O58" s="18">
+        <v>600</v>
+      </c>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A47:Q47"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A47:R47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
